--- a/Data/EC/NIT-8060055459.xlsx
+++ b/Data/EC/NIT-8060055459.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9FB6673-6EBC-4CA0-B8F2-7B28AB0D155B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{01A887D4-7044-4AA5-B1F9-2B82C8052456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9B835AEE-51F2-47A0-9228-BF9A92043C29}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{556EC1A7-A6AC-4634-BC8B-ECD1B296CA06}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
     <t>KAREN LORENA PIÑERES CARMONA</t>
   </si>
   <si>
-    <t>2505</t>
+    <t>2507</t>
   </si>
   <si>
     <t>2506</t>
@@ -488,7 +488,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CC44FA6-C35A-B81F-E048-471A7CF0B146}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96840A3E-280E-8619-A22C-9D89785997B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -839,7 +839,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF11C6BB-52AE-4075-9481-B05907C6B248}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{516F6AA1-CFD7-4639-9FC1-BDF9DA4157A1}">
   <dimension ref="B2:J23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
